--- a/src/main/java/com/lifehouse/raceth/finalprotocol/finalprotocol.xlsx
+++ b/src/main/java/com/lifehouse/raceth/finalprotocol/finalprotocol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -71,12 +71,15 @@
     <t>00:01:14</t>
   </si>
   <si>
-    <t>00:01:44</t>
+    <t>00:47:21</t>
   </si>
   <si>
     <t>М11-22</t>
   </si>
   <si>
+    <t>Н/Ф</t>
+  </si>
+  <si>
     <t>Грачева</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
     <t>00:01:12</t>
   </si>
   <si>
-    <t>00:01:46</t>
-  </si>
-  <si>
     <t>Ж11-22</t>
   </si>
   <si>
@@ -110,9 +110,6 @@
     <t>00:01:17</t>
   </si>
   <si>
-    <t>00:01:47</t>
-  </si>
-  <si>
     <t>Данил</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>00:01:19</t>
   </si>
   <si>
-    <t>00:01:49</t>
+    <t>00:47:19</t>
   </si>
 </sst>
 </file>
@@ -172,10 +169,156 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -241,146 +384,140 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n" s="6">
+        <v>37598.0</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n" s="2">
-        <v>37598.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="17">
         <v>22</v>
       </c>
-      <c r="D3" t="n" s="2">
+      <c r="C3" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n" s="19">
         <v>37599.0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="n">
+      <c r="F3" s="21"/>
+      <c r="G3" t="n" s="22">
         <v>2.0</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="26">
         <v>27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="29">
         <v>28</v>
       </c>
-      <c r="D4" t="n" s="2">
+      <c r="D4" t="n" s="30">
         <v>37600.0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="31">
         <v>15</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="n">
+      <c r="F4" s="32"/>
+      <c r="G4" t="n" s="33">
         <v>3.0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="36">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="38">
         <v>1.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="39">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="40">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n" s="41">
+        <v>37601.0</v>
+      </c>
+      <c r="E5" t="s" s="42">
+        <v>15</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" t="n" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="D5" t="n" s="2">
-        <v>37601.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s" s="46">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s" s="47">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s" s="49">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="50">
         <v>20</v>
       </c>
     </row>
